--- a/data/hunting_fox.xlsx
+++ b/data/hunting_fox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C708B35F-63AC-3642-9CD5-228F8BE7B5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB37385B-9D16-2F4B-B1C4-CA522DE710FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18540" yWindow="3820" windowWidth="18800" windowHeight="15080" xr2:uid="{5B1E618E-E833-1C4F-AC97-38369A5B30D9}"/>
+    <workbookView xWindow="1520" yWindow="3700" windowWidth="18800" windowHeight="15080" xr2:uid="{5B1E618E-E833-1C4F-AC97-38369A5B30D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>success</t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>grass_cover</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>SW3</t>
+  </si>
+  <si>
+    <t>SW4</t>
   </si>
 </sst>
 </file>
@@ -450,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC172A5F-9110-5743-AD16-249ECEF8488B}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,7 +496,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <f>SUM(D2:E2)</f>
@@ -502,10 +514,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C17" si="0">SUM(D3:E3)</f>
+        <f t="shared" ref="C3:C21" si="0">SUM(D3:E3)</f>
         <v>20</v>
       </c>
       <c r="D3">
@@ -520,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
@@ -538,7 +550,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
@@ -556,7 +568,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -574,7 +586,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -592,7 +604,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -610,7 +622,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -628,7 +640,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -646,7 +658,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -664,7 +676,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -682,7 +694,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -700,7 +712,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -718,7 +730,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -736,14 +748,14 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -754,7 +766,7 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -765,6 +777,78 @@
       </c>
       <c r="E17">
         <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>85</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>92</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>95</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>83</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
